--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77FA54-8055-4DD7-9DA0-2592BA1D8FAA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A3838-8B4A-47F5-A9B5-5468F2FCBAE7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DNI</t>
   </si>
@@ -64,22 +65,23 @@
   </si>
   <si>
     <t>ProgramID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Programa De Estudios</t>
+  </si>
+  <si>
+    <t>mecanica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,12 +115,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,52 +457,78 @@
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A3838-8B4A-47F5-A9B5-5468F2FCBAE7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="teacher" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teacher" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,10 +93,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,17 +115,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,31 +433,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="24.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="19.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="19.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" r="1" s="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,36 +499,52 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Programa De Estudios</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" t="str">
+        <v>mecanica</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>compu</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>computacion</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -544,6 +544,22 @@
         <v>computacion</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>enfermeria</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Enfermeria</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7B91E-E56D-4D51-B8EE-B31A500A576F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teacher" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
+    <sheet name="teacher" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DNI</t>
   </si>
@@ -68,13 +74,25 @@
   </si>
   <si>
     <t>mecanica</t>
+  </si>
+  <si>
+    <t>compu</t>
+  </si>
+  <si>
+    <t>computacion</t>
+  </si>
+  <si>
+    <t>enfermeria</t>
+  </si>
+  <si>
+    <t>Enfermeria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +111,10 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -115,17 +127,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,31 +445,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="24.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="19.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13.140625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13.5703125"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="true" r="1" s="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,68 +511,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Programa De Estudios</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>mecanica</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>compu</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>computacion</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>enfermeria</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Enfermeria</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7B91E-E56D-4D51-B8EE-B31A500A576F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="teacher" sheetId="1" r:id="rId1"/>
-    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teacher" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +105,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,17 +127,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -445,31 +445,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31.140625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="24.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="10.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="19.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="19.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13.140625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="29.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="true" r="1" s="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,68 +511,76 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Programa De Estudios</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <v>computacion</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <v>mecanica</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <v>agropecuraria</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <v>civil</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" t="str">
+        <v>enefermeria</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>contabilidad</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -545,15 +545,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>mecanica</v>
+        <v>enfermeria</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="str">
-        <v>agropecuraria</v>
+        <v>enfermeria</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -542,10 +542,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>enfermeria</v>
+        <v>computacion</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -558,26 +558,34 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
-        <v>civil</v>
+        <v>mecanica</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="str">
-        <v>enefermeria</v>
+        <v>agropecuariasss</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="str">
-        <v>contabilidad</v>
+        <v>CONTABILIDAD</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="str">
+        <v>civillll</v>
       </c>
     </row>
   </sheetData>

--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teacher" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,11 +16,12 @@
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
+  <fileRecoveryPr repairLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DNI</t>
   </si>
@@ -67,19 +68,7 @@
     <t>Programa De Estudios</t>
   </si>
   <si>
-    <t>mecanica</t>
-  </si>
-  <si>
-    <t>compu</t>
-  </si>
-  <si>
     <t>computacion</t>
-  </si>
-  <si>
-    <t>enfermeria</t>
-  </si>
-  <si>
-    <t>Enfermeria</t>
   </si>
 </sst>
 </file>
@@ -449,65 +438,65 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31.140625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="8.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="24.42578125"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="10.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="19.28515625"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13.140625"/>
-    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="29.7109375"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13.5703125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="10.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="22.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="12.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="28.140625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="10.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="19.42578125"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="19.28515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16.7109375"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="13.140625"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="29.7109375"/>
   </cols>
   <sheetData>
     <row customFormat="true" r="1" s="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -518,21 +507,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="35"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
+    <row r="1">
+      <c r="A1" s="2" t="str">
         <v>ID</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="2" t="str">
         <v>Programa De Estudios</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -540,55 +531,6 @@
         <v>computacion</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <v>computacion</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <v>enfermeria</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>mecanica</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="str">
-        <v>agropecuariasss</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="str">
-        <v>CONTABILIDAD</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="str">
-        <v>civillll</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/templateTeacherSA.xlsx
+++ b/templates/templateTeacherSA.xlsx
@@ -528,7 +528,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
+        <v>Computación E Informática</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Enfermería Técnica</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>mecanica</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>física</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
         <v>computacion</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>comono</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>somos sss</v>
       </c>
     </row>
   </sheetData>
